--- a/src/lens_analysis/res/company_types/rest-of-world-company-forms.xlsx
+++ b/src/lens_analysis/res/company_types/rest-of-world-company-forms.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\new_custom_python_modules\lens_analysis\src\lens_analysis\res\countries\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\new_custom_python_modules\lens_analysis\src\lens_analysis\res\company_types\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D02CD506-1466-430E-B9A8-4FBA16822875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{538549B7-B37B-4C67-A27E-F611B87CB031}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A4F8FE37-0C9B-4E4E-8BE8-C8D4EF9D2059}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="310">
   <si>
     <t>KK</t>
   </si>
@@ -213,16 +213,10 @@
     <t>EMPRESA PÚBLICA</t>
   </si>
   <si>
-    <t>LLC</t>
-  </si>
-  <si>
     <t>LLP</t>
   </si>
   <si>
     <t>SAE</t>
-  </si>
-  <si>
-    <t>L L C</t>
   </si>
   <si>
     <t>L L P</t>
@@ -1330,10 +1324,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{352125EA-A18F-41D4-A578-E5244D69A485}">
-  <dimension ref="A1:A317"/>
+  <dimension ref="A1:A315"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="A110" sqref="A110"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="A114" sqref="A114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1348,17 +1342,17 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
@@ -1368,12 +1362,12 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
@@ -1383,37 +1377,37 @@
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
@@ -1423,22 +1417,22 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
@@ -1448,27 +1442,27 @@
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
@@ -1478,22 +1472,22 @@
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
@@ -1503,7 +1497,7 @@
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
@@ -1518,62 +1512,62 @@
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
@@ -1593,27 +1587,27 @@
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
@@ -1623,32 +1617,32 @@
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.3">
@@ -1663,22 +1657,22 @@
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.3">
@@ -1698,7 +1692,7 @@
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.3">
@@ -1708,57 +1702,57 @@
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.3">
@@ -1768,102 +1762,102 @@
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.3">
@@ -1873,17 +1867,17 @@
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.3">
@@ -1893,17 +1887,17 @@
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.3">
@@ -1913,217 +1907,217 @@
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
-        <v>65</v>
+        <v>112</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
-        <v>114</v>
+        <v>28</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
-        <v>60</v>
+        <v>279</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
-        <v>35</v>
+        <v>149</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
-        <v>281</v>
+        <v>242</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
-        <v>151</v>
+        <v>23</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
-        <v>244</v>
+        <v>195</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
-        <v>23</v>
+        <v>256</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
-        <v>197</v>
+        <v>142</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
-        <v>258</v>
+        <v>229</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
-        <v>144</v>
+        <v>208</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
-        <v>231</v>
+        <v>29</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
-        <v>210</v>
+        <v>18</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
-        <v>29</v>
+        <v>185</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
-        <v>18</v>
+        <v>243</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
-        <v>187</v>
+        <v>257</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
-        <v>245</v>
+        <v>99</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
-        <v>259</v>
+        <v>90</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
-        <v>101</v>
+        <v>230</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
-        <v>92</v>
+        <v>244</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
-        <v>232</v>
+        <v>70</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
-        <v>246</v>
+        <v>71</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
-        <v>73</v>
+        <v>109</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
-        <v>12</v>
+        <v>110</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
-        <v>112</v>
+        <v>231</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
-        <v>125</v>
+        <v>67</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
-        <v>233</v>
+        <v>68</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
-        <v>69</v>
+        <v>8</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
-        <v>70</v>
+        <v>125</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
-        <v>8</v>
+        <v>127</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.3">
@@ -2133,7 +2127,7 @@
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.3">
@@ -2143,682 +2137,682 @@
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
-        <v>122</v>
+        <v>9</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
-        <v>130</v>
+        <v>280</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
-        <v>282</v>
+        <v>75</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
-        <v>77</v>
+        <v>267</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
-        <v>77</v>
+        <v>105</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A170" s="2" t="s">
-        <v>269</v>
+        <v>106</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A171" s="2" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A172" s="2" t="s">
-        <v>108</v>
+        <v>10</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
-        <v>123</v>
+        <v>281</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A174" s="2" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A175" s="2" t="s">
-        <v>283</v>
+        <v>74</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A176" s="2" t="s">
-        <v>75</v>
+        <v>15</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A177" s="2" t="s">
-        <v>76</v>
+        <v>14</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A178" s="2" t="s">
-        <v>15</v>
+        <v>113</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A179" s="2" t="s">
-        <v>14</v>
+        <v>114</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A180" s="2" t="s">
-        <v>115</v>
+        <v>258</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A181" s="2" t="s">
-        <v>116</v>
+        <v>282</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A182" s="2" t="s">
-        <v>260</v>
+        <v>107</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A183" s="2" t="s">
-        <v>284</v>
+        <v>196</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A184" s="2" t="s">
-        <v>109</v>
+        <v>209</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A185" s="2" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A186" s="2" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A187" s="2" t="s">
-        <v>188</v>
+        <v>164</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A188" s="2" t="s">
-        <v>223</v>
+        <v>62</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A189" s="2" t="s">
-        <v>166</v>
+        <v>214</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A190" s="2" t="s">
-        <v>64</v>
+        <v>215</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A191" s="2" t="s">
-        <v>216</v>
+        <v>165</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A192" s="2" t="s">
-        <v>217</v>
+        <v>19</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A193" s="2" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A194" s="2" t="s">
-        <v>19</v>
+        <v>169</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A195" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A196" s="2" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A197" s="2" t="s">
-        <v>164</v>
+        <v>13</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A198" s="2" t="s">
-        <v>165</v>
+        <v>44</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A199" s="2" t="s">
-        <v>13</v>
+        <v>222</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A200" s="2" t="s">
-        <v>44</v>
+        <v>170</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A201" s="2" t="s">
-        <v>224</v>
+        <v>60</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A202" s="2" t="s">
-        <v>172</v>
+        <v>100</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A203" s="2" t="s">
-        <v>61</v>
+        <v>91</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A204" s="2" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A205" s="2" t="s">
-        <v>93</v>
+        <v>212</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A206" s="2" t="s">
-        <v>94</v>
+        <v>213</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A207" s="2" t="s">
-        <v>214</v>
+        <v>171</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A208" s="2" t="s">
-        <v>215</v>
+        <v>21</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A209" s="2" t="s">
-        <v>173</v>
+        <v>5</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A210" s="2" t="s">
-        <v>21</v>
+        <v>200</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A211" s="2" t="s">
-        <v>5</v>
+        <v>202</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A212" s="2" t="s">
-        <v>202</v>
+        <v>7</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A213" s="2" t="s">
-        <v>204</v>
+        <v>101</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A214" s="2" t="s">
-        <v>7</v>
+        <v>93</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A215" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A216" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A217" s="2" t="s">
-        <v>104</v>
+        <v>76</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A218" s="2" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A219" s="2" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A220" s="2" t="s">
-        <v>67</v>
+        <v>16</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A221" s="2" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A222" s="2" t="s">
-        <v>16</v>
+        <v>86</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A223" s="2" t="s">
-        <v>11</v>
+        <v>223</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A224" s="2" t="s">
-        <v>88</v>
+        <v>175</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A225" s="2" t="s">
-        <v>225</v>
+        <v>176</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A226" s="2" t="s">
-        <v>177</v>
+        <v>49</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A227" s="2" t="s">
-        <v>178</v>
+        <v>85</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A228" s="2" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A229" s="2" t="s">
-        <v>87</v>
+        <v>37</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A230" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A231" s="2" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A232" s="2" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A233" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A234" s="2" t="s">
-        <v>51</v>
+        <v>174</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A235" s="2" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A236" s="2" t="s">
-        <v>176</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A237" s="2" t="s">
-        <v>39</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A238" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A239" s="2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A240" s="2" t="s">
-        <v>3</v>
+        <v>216</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A241" s="2" t="s">
-        <v>4</v>
+        <v>217</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A242" s="2" t="s">
-        <v>218</v>
+        <v>30</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A243" s="2" t="s">
-        <v>219</v>
+        <v>31</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A244" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A245" s="2" t="s">
-        <v>31</v>
+        <v>309</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A246" s="2" t="s">
-        <v>31</v>
+        <v>210</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A247" s="2" t="s">
-        <v>311</v>
+        <v>103</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A248" s="2" t="s">
-        <v>212</v>
+        <v>95</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A249" s="2" t="s">
-        <v>105</v>
+        <v>150</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A250" s="2" t="s">
-        <v>97</v>
+        <v>143</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A251" s="2" t="s">
-        <v>152</v>
+        <v>283</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A252" s="2" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A253" s="2" t="s">
-        <v>285</v>
+        <v>24</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A254" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A255" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A256" s="2" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A257" s="2" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A258" s="2" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A259" s="2" t="s">
-        <v>32</v>
+        <v>284</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A260" s="2" t="s">
-        <v>134</v>
+        <v>285</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A261" s="2" t="s">
-        <v>286</v>
+        <v>83</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A262" s="2" t="s">
-        <v>287</v>
+        <v>80</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A263" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A264" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A265" s="2" t="s">
-        <v>86</v>
+        <v>172</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A266" s="2" t="s">
-        <v>83</v>
+        <v>166</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A267" s="2" t="s">
-        <v>174</v>
+        <v>144</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A268" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A269" s="2" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A270" s="2" t="s">
-        <v>169</v>
+        <v>146</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A271" s="2" t="s">
-        <v>136</v>
+        <v>245</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A272" s="2" t="s">
-        <v>148</v>
+        <v>259</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A273" s="2" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A274" s="2" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A275" s="2" t="s">
-        <v>234</v>
+        <v>247</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A276" s="2" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A277" s="2" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A278" s="2" t="s">
-        <v>262</v>
+        <v>233</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A279" s="2" t="s">
-        <v>263</v>
+        <v>234</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A280" s="2" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A281" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A282" s="2" t="s">
-        <v>250</v>
+        <v>268</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A283" s="2" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A284" s="2" t="s">
-        <v>270</v>
+        <v>249</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A285" s="2" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A286" s="2" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A287" s="2" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A288" s="2" t="s">
-        <v>238</v>
+        <v>263</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A289" s="2" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A290" s="2" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A291" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A292" s="2" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A293" s="2" t="s">
-        <v>240</v>
+        <v>264</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A294" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A295" s="2" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A296" s="2" t="s">
-        <v>273</v>
+        <v>287</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.3">
@@ -2838,57 +2832,57 @@
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A300" s="2" t="s">
-        <v>291</v>
+        <v>155</v>
       </c>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A301" s="2" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A302" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A303" s="2" t="s">
-        <v>298</v>
+        <v>151</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A304" s="2" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A305" s="2" t="s">
-        <v>153</v>
+        <v>291</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A306" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A307" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A308" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A309" s="2" t="s">
-        <v>294</v>
+        <v>157</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A310" s="2" t="s">
-        <v>160</v>
+        <v>293</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.3">
@@ -2898,37 +2892,27 @@
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A312" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A313" s="2" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A314" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A315" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A316" s="2" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A317" s="2" t="s">
-        <v>299</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A317">
-    <sortCondition ref="A297:A317"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A315">
+    <sortCondition ref="A295:A315"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
